--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34503,7 +34503,9 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="72"/>
+      <c r="J15" s="72">
+        <v>33</v>
+      </c>
       <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -34820,7 +34822,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34234,7 +34234,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34537,7 +34537,9 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="72"/>
+      <c r="J17" s="72">
+        <v>0</v>
+      </c>
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34552,7 +34554,9 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="72"/>
+      <c r="J18" s="72">
+        <v>0</v>
+      </c>
       <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34567,7 +34571,9 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="72"/>
+      <c r="J19" s="72">
+        <v>10</v>
+      </c>
       <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34824,7 +34830,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34234,7 +34234,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34588,7 +34588,9 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="72"/>
+      <c r="J20" s="72">
+        <v>27</v>
+      </c>
       <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34830,7 +34832,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34234,7 +34234,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34605,7 +34605,9 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="72"/>
+      <c r="J21" s="72">
+        <v>15</v>
+      </c>
       <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34620,7 +34622,9 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="72"/>
+      <c r="J22" s="72">
+        <v>21</v>
+      </c>
       <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34635,7 +34639,9 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="72"/>
+      <c r="J23" s="72">
+        <v>20</v>
+      </c>
       <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34832,7 +34838,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34234,7 +34234,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34656,7 +34656,9 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="72"/>
+      <c r="J24" s="72">
+        <v>0</v>
+      </c>
       <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34671,7 +34673,9 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="72"/>
+      <c r="J25" s="72">
+        <v>0</v>
+      </c>
       <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34686,7 +34690,9 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="72"/>
+      <c r="J26" s="72">
+        <v>74</v>
+      </c>
       <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34838,7 +34844,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34234,7 +34234,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34707,7 +34707,9 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="72"/>
+      <c r="J27" s="72">
+        <v>43</v>
+      </c>
       <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34844,7 +34846,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34233,8 +34233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34724,7 +34724,9 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="72"/>
+      <c r="J28" s="72">
+        <v>15</v>
+      </c>
       <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
@@ -34739,7 +34741,9 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="72"/>
+      <c r="J29" s="72">
+        <v>10</v>
+      </c>
       <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -34754,7 +34758,9 @@
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="72"/>
+      <c r="J30" s="72">
+        <v>11</v>
+      </c>
       <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -34769,7 +34775,9 @@
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="72"/>
+      <c r="J31" s="72">
+        <v>0</v>
+      </c>
       <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -34784,7 +34792,9 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="72"/>
+      <c r="J32" s="72">
+        <v>0</v>
+      </c>
       <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -34799,7 +34809,9 @@
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="72"/>
+      <c r="J33" s="72">
+        <v>90</v>
+      </c>
       <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -34846,7 +34858,7 @@
       <c r="I36" s="26"/>
       <c r="J36" s="72">
         <f>SUM(J6:J35)</f>
-        <v>422</v>
+        <v>548</v>
       </c>
       <c r="K36" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" firstSheet="21" activeTab="35"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" firstSheet="22" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="01.20" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,14 @@
     <sheet name="Лист9" sheetId="34" r:id="rId34"/>
     <sheet name="Лист10" sheetId="35" r:id="rId35"/>
     <sheet name="Лист11" sheetId="36" r:id="rId36"/>
+    <sheet name="Лист12" sheetId="37" r:id="rId37"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="56">
   <si>
     <t>Щоденний моніторинг енергоносіїв 2020 рік</t>
   </si>
@@ -34233,8 +34234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="A1:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34826,12 +34827,609 @@
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="72"/>
+      <c r="J34" s="72">
+        <v>36</v>
+      </c>
       <c r="K34" s="40"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>44895</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="72">
+        <v>35</v>
+      </c>
+      <c r="K35" s="40"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="72">
+        <f>SUM(J6:J35)</f>
+        <v>619</v>
+      </c>
+      <c r="K36" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44896</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="71">
+        <v>33</v>
+      </c>
+      <c r="K6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>44897</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="72">
+        <v>42</v>
+      </c>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>44898</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>44899</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>44900</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>44901</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>44902</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>44903</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>44904</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>44905</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>44906</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>44907</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>44908</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>44909</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>44910</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>44911</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>44912</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>44913</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>44914</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>44915</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>44916</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>44917</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>44918</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>44919</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>44920</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>44921</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>44922</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>44923</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>44924</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>44925</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -34845,22 +35443,37 @@
       <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7">
+        <v>44926</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="40"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="72">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="72">
         <f>SUM(J6:J35)</f>
-        <v>548</v>
-      </c>
-      <c r="K36" s="26"/>
+        <v>75</v>
+      </c>
+      <c r="K37" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34884,7 +34884,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35034,7 +35034,9 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="40"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="72">
+        <v>0</v>
+      </c>
       <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -35049,7 +35051,9 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="40"/>
-      <c r="J9" s="72"/>
+      <c r="J9" s="72">
+        <v>0</v>
+      </c>
       <c r="K9" s="40"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -35064,7 +35068,9 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="40"/>
-      <c r="J10" s="72"/>
+      <c r="J10" s="72">
+        <v>87</v>
+      </c>
       <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -35079,7 +35085,9 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="40"/>
-      <c r="J11" s="72"/>
+      <c r="J11" s="72">
+        <v>74</v>
+      </c>
       <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -35471,7 +35479,7 @@
       <c r="I37" s="26"/>
       <c r="J37" s="72">
         <f>SUM(J6:J35)</f>
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="K37" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34884,7 +34884,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35086,7 +35086,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="40"/>
       <c r="J11" s="72">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K11" s="40"/>
     </row>
@@ -35102,7 +35102,9 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="72"/>
+      <c r="J12" s="72">
+        <v>42</v>
+      </c>
       <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -35117,7 +35119,9 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="72"/>
+      <c r="J13" s="72">
+        <v>54</v>
+      </c>
       <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -35132,7 +35136,9 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="72"/>
+      <c r="J14" s="72">
+        <v>45</v>
+      </c>
       <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -35479,7 +35485,7 @@
       <c r="I37" s="26"/>
       <c r="J37" s="72">
         <f>SUM(J6:J35)</f>
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="K37" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -34884,7 +34884,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35153,7 +35153,9 @@
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="40"/>
-      <c r="J15" s="72"/>
+      <c r="J15" s="72">
+        <v>0</v>
+      </c>
       <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -35168,7 +35170,9 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="72"/>
+      <c r="J16" s="72">
+        <v>0</v>
+      </c>
       <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -35183,7 +35187,9 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="72"/>
+      <c r="J17" s="72">
+        <v>52</v>
+      </c>
       <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -35198,7 +35204,9 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="72"/>
+      <c r="J18" s="72">
+        <v>47</v>
+      </c>
       <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -35485,7 +35493,7 @@
       <c r="I37" s="26"/>
       <c r="J37" s="72">
         <f>SUM(J6:J35)</f>
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="K37" s="26"/>
     </row>

--- a/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
+++ b/Лічильники/Щоденний моніторинг ел.енергія Бережниця.xlsx
@@ -378,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -562,6 +562,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -923,28 +924,28 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -2410,7 +2411,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2450,16 +2451,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2478,8 +2479,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -3139,7 +3140,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44094</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44095</v>
       </c>
@@ -3201,7 +3202,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44096</v>
       </c>
@@ -3232,7 +3233,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44097</v>
       </c>
@@ -3263,7 +3264,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44098</v>
       </c>
@@ -3294,7 +3295,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44099</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44100</v>
       </c>
@@ -3577,28 +3578,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -4283,7 +4284,7 @@
       </c>
       <c r="P21" s="41"/>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44121</v>
       </c>
@@ -4325,7 +4326,7 @@
       <c r="O22" s="41"/>
       <c r="P22" s="41"/>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44122</v>
       </c>
@@ -4367,7 +4368,7 @@
       <c r="O23" s="41"/>
       <c r="P23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44123</v>
       </c>
@@ -4415,7 +4416,7 @@
       </c>
       <c r="P24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44124</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>431693</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44125</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>1485.8</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44126</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>1485.8</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44127</v>
       </c>
@@ -5091,28 +5092,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -5953,7 +5954,7 @@
         <v>8446</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44152</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>8471</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44153</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>8496</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44154</v>
       </c>
@@ -6091,7 +6092,7 @@
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44155</v>
       </c>
@@ -6137,7 +6138,7 @@
       </c>
       <c r="P25" s="40"/>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44156</v>
       </c>
@@ -6179,7 +6180,7 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44157</v>
       </c>
@@ -6221,7 +6222,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44158</v>
       </c>
@@ -6711,28 +6712,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7809,7 +7810,7 @@
         <v>185.8</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44188</v>
       </c>
@@ -7851,7 +7852,7 @@
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
     </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44189</v>
       </c>
@@ -7893,7 +7894,7 @@
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
     </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44190</v>
       </c>
@@ -7935,7 +7936,7 @@
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
     </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44191</v>
       </c>
@@ -7978,7 +7979,7 @@
       <c r="P31" s="40"/>
       <c r="S31" s="38"/>
     </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44192</v>
       </c>
@@ -8021,7 +8022,7 @@
       <c r="P32" s="40"/>
       <c r="S32" s="38"/>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44193</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>9486</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44194</v>
       </c>
@@ -8107,7 +8108,7 @@
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44195</v>
       </c>
@@ -8281,28 +8282,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -9518,7 +9519,7 @@
       <c r="P32" s="40"/>
       <c r="S32" s="38"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44224</v>
       </c>
@@ -9571,7 +9572,7 @@
         <v>186.4</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44225</v>
       </c>
@@ -9611,7 +9612,7 @@
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44226</v>
       </c>
@@ -9651,7 +9652,7 @@
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44227</v>
       </c>
@@ -9740,7 +9741,7 @@
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N38" s="38">
         <v>26600</v>
       </c>
@@ -9789,28 +9790,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -11168,28 +11169,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -12524,7 +12525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44286</v>
       </c>
@@ -12656,28 +12657,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -13414,7 +13415,7 @@
         <v>12166</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44303</v>
       </c>
@@ -13452,7 +13453,7 @@
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44304</v>
       </c>
@@ -13492,7 +13493,7 @@
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
     </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44305</v>
       </c>
@@ -13531,7 +13532,7 @@
       <c r="P24" s="54"/>
       <c r="R24" s="54"/>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44306</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>12256</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44307</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>12277</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44308</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>12299</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44309</v>
       </c>
@@ -14071,28 +14072,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -15172,7 +15173,7 @@
       </c>
       <c r="S32" s="38"/>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44344</v>
       </c>
@@ -15210,7 +15211,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44345</v>
       </c>
@@ -15246,7 +15247,7 @@
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44346</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>44347</v>
       </c>
@@ -15374,7 +15375,7 @@
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
     </row>
-    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N38" s="38">
         <v>31007</v>
       </c>
@@ -15448,29 +15449,29 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="1"/>
@@ -16604,7 +16605,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>44372</v>
       </c>
@@ -16649,7 +16650,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>44373</v>
       </c>
@@ -16690,7 +16691,7 @@
       <c r="S31" s="38"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>44374</v>
       </c>
@@ -16731,7 +16732,7 @@
       <c r="S32" s="38"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>44375</v>
       </c>
@@ -16772,7 +16773,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>44376</v>
       </c>
@@ -16817,7 +16818,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>44377</v>
       </c>
@@ -16918,7 +16919,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="43"/>
@@ -16981,22 +16982,22 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -17012,12 +17013,12 @@
       <c r="H2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -18488,7 +18489,7 @@
         <v>9161</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G39" s="1" t="s">
         <v>37</v>
       </c>
@@ -18555,29 +18556,29 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -19287,7 +19288,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44394</v>
       </c>
@@ -19324,7 +19325,7 @@
       <c r="O22" s="57"/>
       <c r="P22" s="57"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44395</v>
       </c>
@@ -19361,7 +19362,7 @@
       <c r="O23" s="57"/>
       <c r="P23" s="57"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44396</v>
       </c>
@@ -19402,7 +19403,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44397</v>
       </c>
@@ -19443,7 +19444,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44398</v>
       </c>
@@ -19484,7 +19485,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44399</v>
       </c>
@@ -19525,7 +19526,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44400</v>
       </c>
@@ -20010,29 +20011,29 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:18" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -20738,7 +20739,7 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44425</v>
       </c>
@@ -20779,7 +20780,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44426</v>
       </c>
@@ -20820,7 +20821,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44427</v>
       </c>
@@ -20861,7 +20862,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44428</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44429</v>
       </c>
@@ -20939,7 +20940,7 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44430</v>
       </c>
@@ -20976,7 +20977,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44431</v>
       </c>
@@ -21466,29 +21467,29 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -22853,28 +22854,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -23688,7 +23689,7 @@
       </c>
       <c r="R24" s="63"/>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44489</v>
       </c>
@@ -23730,7 +23731,7 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44490</v>
       </c>
@@ -23772,7 +23773,7 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44491</v>
       </c>
@@ -23814,7 +23815,7 @@
         <v>5082</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44492</v>
       </c>
@@ -23854,7 +23855,7 @@
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
     </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>44493</v>
       </c>
@@ -23894,7 +23895,7 @@
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
     </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44494</v>
       </c>
@@ -23940,7 +23941,7 @@
         <v>5142</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44495</v>
       </c>
@@ -24292,36 +24293,36 @@
         <v>52</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
     </row>
     <row r="4" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -24973,7 +24974,7 @@
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>44529</v>
       </c>
@@ -24994,7 +24995,7 @@
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44530</v>
       </c>
@@ -25052,10 +25053,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:K37"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25073,48 +25074,48 @@
     <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="M3" s="74" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-    </row>
-    <row r="4" spans="1:16" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="77"/>
+    </row>
+    <row r="4" spans="1:18" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="16"/>
@@ -25131,7 +25132,7 @@
       <c r="O4" s="70"/>
       <c r="P4" s="70"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -25174,7 +25175,7 @@
       </c>
       <c r="P5" s="70"/>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44531</v>
       </c>
@@ -25196,8 +25197,12 @@
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="R6" s="73">
+        <f>SUM(J6:J16)</f>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44532</v>
       </c>
@@ -25218,7 +25223,7 @@
       <c r="O7" s="70"/>
       <c r="P7" s="70"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44533</v>
       </c>
@@ -25239,7 +25244,7 @@
       <c r="O8" s="70"/>
       <c r="P8" s="70"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44534</v>
       </c>
@@ -25260,7 +25265,7 @@
       <c r="O9" s="70"/>
       <c r="P9" s="70"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44535</v>
       </c>
@@ -25281,7 +25286,7 @@
       <c r="O10" s="70"/>
       <c r="P10" s="70"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44536</v>
       </c>
@@ -25302,7 +25307,7 @@
       <c r="O11" s="70"/>
       <c r="P11" s="70"/>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44537</v>
       </c>
@@ -25323,7 +25328,7 @@
       <c r="O12" s="70"/>
       <c r="P12" s="70"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44538</v>
       </c>
@@ -25344,7 +25349,7 @@
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44539</v>
       </c>
@@ -25365,7 +25370,7 @@
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44540</v>
       </c>
@@ -25386,7 +25391,7 @@
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44541</v>
       </c>
@@ -25533,7 +25538,7 @@
       <c r="O22" s="70"/>
       <c r="P22" s="70"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44548</v>
       </c>
@@ -25554,7 +25559,7 @@
       <c r="O23" s="70"/>
       <c r="P23" s="70"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44549</v>
       </c>
@@ -25575,7 +25580,7 @@
       <c r="O24" s="70"/>
       <c r="P24" s="70"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44550</v>
       </c>
@@ -25596,7 +25601,7 @@
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>44551</v>
       </c>
@@ -25617,7 +25622,7 @@
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>44552</v>
       </c>
@@ -25638,7 +25643,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>44553</v>
       </c>
@@ -25889,13 +25894,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -25913,31 +25918,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -26276,7 +26281,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44579</v>
       </c>
@@ -26293,7 +26298,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44580</v>
       </c>
@@ -26310,7 +26315,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44581</v>
       </c>
@@ -26327,7 +26332,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44582</v>
       </c>
@@ -26344,7 +26349,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44583</v>
       </c>
@@ -26361,7 +26366,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44584</v>
       </c>
@@ -26378,7 +26383,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44585</v>
       </c>
@@ -26555,13 +26560,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -26579,31 +26584,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -27053,7 +27058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44613</v>
       </c>
@@ -27073,7 +27078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44614</v>
       </c>
@@ -27093,7 +27098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44615</v>
       </c>
@@ -27113,7 +27118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44616</v>
       </c>
@@ -27133,7 +27138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>44617</v>
       </c>
@@ -27153,7 +27158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>44618</v>
       </c>
@@ -27173,7 +27178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>44619</v>
       </c>
@@ -27254,13 +27259,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -27278,31 +27283,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -27641,7 +27646,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44638</v>
       </c>
@@ -27658,7 +27663,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44639</v>
       </c>
@@ -27675,7 +27680,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44640</v>
       </c>
@@ -27692,7 +27697,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44641</v>
       </c>
@@ -27709,7 +27714,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44642</v>
       </c>
@@ -27726,7 +27731,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44643</v>
       </c>
@@ -27743,7 +27748,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44644</v>
       </c>
@@ -27920,13 +27925,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -27944,31 +27949,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -28528,7 +28533,7 @@
       </c>
       <c r="K35" s="40"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -28594,22 +28599,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -28625,12 +28630,12 @@
       <c r="H2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -30037,7 +30042,7 @@
         <v>12581</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43920</v>
       </c>
@@ -30087,7 +30092,7 @@
         <v>12598</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43921</v>
       </c>
@@ -30182,7 +30187,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N36" s="1">
         <v>16690</v>
       </c>
@@ -30218,13 +30223,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -30242,31 +30247,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -30792,7 +30797,7 @@
       </c>
       <c r="K33" s="40"/>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>44710</v>
       </c>
@@ -30809,7 +30814,7 @@
       </c>
       <c r="K34" s="40"/>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>44711</v>
       </c>
@@ -30826,7 +30831,7 @@
       </c>
       <c r="K35" s="40"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>44712</v>
       </c>
@@ -30843,7 +30848,7 @@
       </c>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -30897,13 +30902,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -30921,31 +30926,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -31284,7 +31289,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44730</v>
       </c>
@@ -31301,7 +31306,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44731</v>
       </c>
@@ -31318,7 +31323,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44732</v>
       </c>
@@ -31335,7 +31340,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44733</v>
       </c>
@@ -31352,7 +31357,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44734</v>
       </c>
@@ -31369,7 +31374,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44735</v>
       </c>
@@ -31386,7 +31391,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44736</v>
       </c>
@@ -31572,13 +31577,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -31596,31 +31601,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -32180,7 +32185,7 @@
       </c>
       <c r="K35" s="40"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>44773</v>
       </c>
@@ -32197,7 +32202,7 @@
       </c>
       <c r="K36" s="26"/>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -32251,13 +32256,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -32275,31 +32280,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -32638,7 +32643,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44791</v>
       </c>
@@ -32655,7 +32660,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44792</v>
       </c>
@@ -32672,7 +32677,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44793</v>
       </c>
@@ -32689,7 +32694,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44794</v>
       </c>
@@ -32706,7 +32711,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44795</v>
       </c>
@@ -32723,7 +32728,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44796</v>
       </c>
@@ -32740,7 +32745,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44797</v>
       </c>
@@ -32930,13 +32935,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -32954,31 +32959,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -33317,7 +33322,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44822</v>
       </c>
@@ -33334,7 +33339,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44823</v>
       </c>
@@ -33351,7 +33356,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44824</v>
       </c>
@@ -33368,7 +33373,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44825</v>
       </c>
@@ -33385,7 +33390,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44826</v>
       </c>
@@ -33402,7 +33407,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44827</v>
       </c>
@@ -33419,7 +33424,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44828</v>
       </c>
@@ -33574,13 +33579,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -33598,31 +33603,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -33961,7 +33966,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44852</v>
       </c>
@@ -33978,7 +33983,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44853</v>
       </c>
@@ -33995,7 +34000,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44854</v>
       </c>
@@ -34012,7 +34017,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44855</v>
       </c>
@@ -34029,7 +34034,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44856</v>
       </c>
@@ -34046,7 +34051,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44857</v>
       </c>
@@ -34063,7 +34068,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44858</v>
       </c>
@@ -34241,13 +34246,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -34265,31 +34270,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -34628,7 +34633,7 @@
       </c>
       <c r="K22" s="40"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44883</v>
       </c>
@@ -34645,7 +34650,7 @@
       </c>
       <c r="K23" s="40"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44884</v>
       </c>
@@ -34662,7 +34667,7 @@
       </c>
       <c r="K24" s="40"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44885</v>
       </c>
@@ -34679,7 +34684,7 @@
       </c>
       <c r="K25" s="40"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>44886</v>
       </c>
@@ -34696,7 +34701,7 @@
       </c>
       <c r="K26" s="40"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>44887</v>
       </c>
@@ -34713,7 +34718,7 @@
       </c>
       <c r="K27" s="40"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>44888</v>
       </c>
@@ -34730,7 +34735,7 @@
       </c>
       <c r="K28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>44889</v>
       </c>
@@ -34884,19 +34889,19 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
       <c r="F1" s="1"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -34914,31 +34919,31 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -35221,7 +35226,9 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="72"/>
+      <c r="J19" s="72">
+        <v>39</v>
+      </c>
       <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -35236,7 +35243,9 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="72"/>
+      <c r="J20" s="72">
+        <v>41</v>
+      </c>
       <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -35251,7 +35260,9 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="72"/>
+      <c r="J21" s="72">
+        <v>45</v>
+      </c>
       <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -35266,7 +35277,9 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="72"/>
+      <c r="J22" s="72">
+        <v>55</v>
+      </c>
       <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -35281,7 +35294,9 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="72"/>
+      <c r="J23" s="72">
+        <v>47</v>
+      </c>
       <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -35493,7 +35508,7 @@
       <c r="I37" s="26"/>
       <c r="J37" s="72">
         <f>SUM(J6:J35)</f>
-        <v>465</v>
+        <v>692</v>
       </c>
       <c r="K37" s="26"/>
     </row>
@@ -36158,22 +36173,22 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73" t="s">
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -36189,12 +36204,12 @@
       <c r="H2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -37471,7 +37486,7 @@
         <v>13107</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43951</v>
       </c>
@@ -37556,7 +37571,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G40" s="1" t="s">
         <v>37</v>
       </c>
@@ -37595,16 +37610,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -37614,8 +37629,8 @@
       <c r="D2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -38401,7 +38416,7 @@
         <v>13565</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>43978</v>
       </c>
@@ -38428,7 +38443,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>43979</v>
       </c>
@@ -38459,7 +38474,7 @@
         <v>13603</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>43980</v>
       </c>
@@ -38486,7 +38501,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>43981</v>
       </c>
@@ -38513,7 +38528,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>43982</v>
       </c>
@@ -38609,16 +38624,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -38628,8 +38643,8 @@
       <c r="D2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -39419,7 +39434,7 @@
         <v>13998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44009</v>
       </c>
@@ -39446,7 +39461,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>44010</v>
       </c>
@@ -39473,7 +39488,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>44011</v>
       </c>
@@ -39500,7 +39515,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>44012</v>
       </c>
@@ -39584,16 +39599,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -39612,8 +39627,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -40521,7 +40536,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>44039</v>
       </c>
@@ -40556,7 +40571,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>44040</v>
       </c>
@@ -40591,7 +40606,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>44041</v>
       </c>
@@ -40626,7 +40641,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>44042</v>
       </c>
@@ -40657,7 +40672,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>44043</v>
       </c>
@@ -40727,7 +40742,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -40767,16 +40782,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -40795,8 +40810,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -41683,7 +41698,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>44070</v>
       </c>
@@ -41714,7 +41729,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>44071</v>
       </c>
@@ -41749,7 +41764,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>44072</v>
       </c>
@@ -41780,7 +41795,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>44073</v>
       </c>
@@ -41811,7 +41826,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>44074</v>
       </c>
@@ -41881,7 +41896,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
